--- a/data/xlsx/02022019.xlsx
+++ b/data/xlsx/02022019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\tiffany\susa\web-dev\police-logs\cleaned\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E2C4006-23BF-48B5-8ED5-BE2B5A40E0A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FDFF0F-C186-4202-AC6D-A0854C40D479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{D7B38891-B216-4B12-9FC0-413AB8FB723A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{E0A30535-3B27-4761-B805-CA45837A980F}"/>
   </bookViews>
   <sheets>
     <sheet name="02022019" sheetId="1" r:id="rId1"/>
@@ -677,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E153EF-90F0-4689-963A-84725B1859CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2880C95D-1CAB-418B-B3B0-AB4C7A057184}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,10 +783,10 @@
         <v>20</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>37.870640000000002</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>-122.25675099999999</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>17</v>
@@ -944,11 +944,11 @@
       <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
+      <c r="F10" s="7">
+        <v>37.875394</v>
+      </c>
+      <c r="G10" s="7">
+        <v>-122.255144</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>45</v>
